--- a/downloads/testing matrix.xlsx
+++ b/downloads/testing matrix.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrwald/WorkDocs/Development/github/TKONetworkingGym/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzapata\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6A4F0F-2C6C-5047-974D-840330084791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14680" xr2:uid="{28FF4DB7-B06B-8141-B971-6C2E4F12C758}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab1 " sheetId="8" r:id="rId1"/>
+    <sheet name="Lab1Results" sheetId="1" r:id="rId2"/>
+    <sheet name="Lab2" sheetId="9" r:id="rId3"/>
+    <sheet name="Lab2Results" sheetId="7" r:id="rId4"/>
+    <sheet name="Lab3" sheetId="6" r:id="rId5"/>
+    <sheet name="Lab3Results" sheetId="10" r:id="rId6"/>
+    <sheet name="Lab4" sheetId="5" r:id="rId7"/>
+    <sheet name="Lab4Results" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="18">
   <si>
     <t>Source Instance</t>
   </si>
@@ -84,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -102,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +121,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -207,19 +231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -245,19 +256,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="dotted">
         <color indexed="64"/>
@@ -266,12 +264,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="dotted">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -280,61 +282,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,18 +339,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,246 +668,1183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9395FDCD-79AB-734A-ACF9-F3BB51FF8B5A}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="9" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="25" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="29" t="s">
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="7" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="8" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="8" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="8" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="8" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="9" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -925,5 +1853,259 @@
     <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="9" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="I1:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/downloads/testing matrix.xlsx
+++ b/downloads/testing matrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzapata\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzapata\Documents\GitHub\networkingworkshop\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1 " sheetId="8" r:id="rId1"/>
@@ -324,21 +324,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,6 +340,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,22 +683,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -712,26 +712,26 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -740,11 +740,11 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -753,11 +753,11 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -766,11 +766,11 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -779,11 +779,11 @@
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -812,22 +812,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -841,26 +841,26 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -869,17 +869,17 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -890,17 +890,17 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -911,17 +911,17 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="C6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -932,17 +932,17 @@
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24" t="s">
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -973,23 +973,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1006,29 +1006,29 @@
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1037,12 +1037,12 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1051,12 +1051,12 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1065,12 +1065,12 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1079,12 +1079,12 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1093,12 +1093,12 @@
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1127,23 +1127,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1160,29 +1160,29 @@
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1191,20 +1191,20 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1215,20 +1215,20 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1239,20 +1239,20 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="C6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1263,20 +1263,20 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1287,20 +1287,20 @@
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24" t="s">
+      <c r="C8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1331,23 +1331,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1364,29 +1364,29 @@
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1395,12 +1395,12 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1409,12 +1409,12 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1423,12 +1423,12 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1437,12 +1437,12 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1451,12 +1451,12 @@
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1485,23 +1485,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1518,29 +1518,29 @@
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1549,20 +1549,20 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1573,20 +1573,20 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1597,20 +1597,20 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="C6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1621,20 +1621,20 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25" t="s">
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1645,20 +1645,20 @@
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="C8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1689,24 +1689,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1726,32 +1726,32 @@
       <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1760,13 +1760,13 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1775,13 +1775,13 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1790,13 +1790,13 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1805,13 +1805,13 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1820,13 +1820,13 @@
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1835,16 +1835,16 @@
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="26"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="27"/>
+      <c r="D10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1861,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1873,24 +1873,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1910,32 +1910,32 @@
       <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1944,23 +1944,23 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1971,23 +1971,23 @@
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="25" t="s">
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1998,23 +1998,23 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="C6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2025,23 +2025,23 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25" t="s">
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="24" t="s">
+      <c r="H7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2052,23 +2052,23 @@
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="C8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2079,23 +2079,23 @@
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
+      <c r="C9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19" t="s">
         <v>11</v>
       </c>
     </row>
